--- a/GRE/真题/B/8.xlsx
+++ b/GRE/真题/B/8.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NAR8_3G\git\FLY_US\GRE\真题\B\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14205" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -493,7 +498,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,20 +539,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -808,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,456 +833,499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="8" width="6.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="6.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <f>B2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:K2" si="0">C2+1</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>56</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" t="s">
-        <v>86</v>
+      <c r="E10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" t="s">
-        <v>96</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>103</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J14" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K14" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1275,6 +1335,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
